--- a/results/performance/pinhole.xlsx
+++ b/results/performance/pinhole.xlsx
@@ -13,241 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="156">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>09.05.2021</t>
-  </si>
-  <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>09.05.2021</t>
-  </si>
-  <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>09.05.2021</t>
-  </si>
-  <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>09.05.2021</t>
-  </si>
-  <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>09.05.2021</t>
-  </si>
-  <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>09.05.2021</t>
-  </si>
-  <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>09.05.2021</t>
-  </si>
-  <si>
-    <t>18.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>Samples</t>
-  </si>
-  <si>
-    <t>EGFPNup107</t>
-  </si>
-  <si>
-    <t>MeasurementsFilenames</t>
-  </si>
-  <si>
-    <t>01_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.85_20210318_Minflux.msr</t>
-  </si>
-  <si>
-    <t>01_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.85_20210319_Minflux.msr</t>
-  </si>
-  <si>
-    <t>01_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.85_20210509_Minflux.msr</t>
-  </si>
-  <si>
-    <t>02_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.74_20210318_Minflux.msr</t>
-  </si>
-  <si>
-    <t>02_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.74_20210319_Minflux.msr</t>
-  </si>
-  <si>
-    <t>02_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.74_20210509_Minflux.msr</t>
-  </si>
-  <si>
-    <t>03_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.64_20210318_Minflux.msr</t>
-  </si>
-  <si>
-    <t>03_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.64_20210319_Minflux.msr</t>
-  </si>
-  <si>
-    <t>03_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.64_20210509_Minflux.msr</t>
-  </si>
-  <si>
-    <t>04_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.53_20210318_Minflux.msr</t>
-  </si>
-  <si>
-    <t>04_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.53_20210319_Minflux.msr</t>
-  </si>
-  <si>
-    <t>04_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.53_20210509_Minflux.msr</t>
-  </si>
-  <si>
-    <t>05_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.96_20210318_Minflux.msr</t>
-  </si>
-  <si>
-    <t>05_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.96_20210319_Minflux.msr</t>
-  </si>
-  <si>
-    <t>05_EGFP-Nup107-nb-Img3-2nM_LP16_PH0.96_20210509_Minflux.msr</t>
-  </si>
-  <si>
-    <t>06_EGFP-Nup107-nb-Img3-2nM_LP16_PH01.1_20210509_Minflux.msr</t>
-  </si>
-  <si>
-    <t>06_EGFP-Nup107-nb-Img3-2nM_LP16_PH1.1_20210318_Minflux.msr</t>
-  </si>
-  <si>
-    <t>06_EGFP-Nup107-nb-Img3-2nM_LP16_PH1.1_20210319_Minflux.msr</t>
-  </si>
-  <si>
-    <t>07_EGFP-Nup107-nb-Img3-2nM_LP16_PH01.3_20210509_Minflux.msr</t>
-  </si>
-  <si>
-    <t>07_EGFP-Nup107-nb-Img3-2nM_LP16_PH1.3_20210318_Minflux.msr</t>
-  </si>
-  <si>
-    <t>07_EGFP-Nup107-nb-Img3-2nM_LP16_PH1.3_20210319_Minflux.msr</t>
-  </si>
-  <si>
-    <t>08_EGFP-Nup107-nb-Img3-2nM_LP16_PH01.5_20210509_Minflux.msr</t>
-  </si>
-  <si>
-    <t>08_EGFP-Nup107-nb-Img3-2nM_LP16_PH1.5_20210318_Minflux.msr</t>
-  </si>
-  <si>
-    <t>08_EGFP-Nup107-nb-Img3-2nM_LP16_PH1.5_20210319_Minflux.msr</t>
-  </si>
-  <si>
-    <t>MinfluxLasernm</t>
-  </si>
-  <si>
-    <t>MinfluxLaserpower</t>
-  </si>
-  <si>
-    <t>MinfluxPinholesizeAU</t>
-  </si>
-  <si>
-    <t>Activation405</t>
-  </si>
-  <si>
-    <t>MinfluxSequence</t>
-  </si>
-  <si>
-    <t>seqIIF.mf</t>
-  </si>
-  <si>
-    <t>DNA_PAINT_Sequence</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>Atto655</t>
-  </si>
-  <si>
-    <t>Buffer</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>ConcentrationnM</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Nanobody</t>
-  </si>
-  <si>
-    <t>ValidEventsRate</t>
-  </si>
-  <si>
-    <t>MedianFBG</t>
-  </si>
-  <si>
-    <t>MedianCFR</t>
-  </si>
-  <si>
-    <t>MedianScanTime</t>
-  </si>
-  <si>
-    <t>MedianLocTime</t>
-  </si>
-  <si>
-    <t>MedianSigmaX</t>
-  </si>
-  <si>
-    <t>MedianSigmaY</t>
-  </si>
-  <si>
-    <t>MedianSigmaZ</t>
-  </si>
-  <si>
-    <t>MedianSigmaR</t>
-  </si>
-  <si>
-    <t>FRCcombined</t>
-  </si>
-  <si>
-    <t>MeanLocPerEvent</t>
-  </si>
-  <si>
-    <t>TimeFilter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -501,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -510,15 +276,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,90 +324,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="D2" s="0">
         <v>640</v>
@@ -658,22 +422,22 @@
         <v>0</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L2" s="0">
         <v>2</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N2" s="0">
         <v>0.14383226355447179</v>
@@ -703,7 +467,7 @@
         <v>2.6600795108929565</v>
       </c>
       <c r="W2" s="0">
-        <v>6.4724919093851128</v>
+        <v>5.7803468208092479</v>
       </c>
       <c r="X2" s="0">
         <v>24.206816421378775</v>
@@ -714,13 +478,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0">
         <v>640</v>
@@ -735,22 +499,22 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L3" s="0">
         <v>2</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N3" s="0">
         <v>0.1640120922257817</v>
@@ -780,7 +544,7 @@
         <v>2.4070022683582657</v>
       </c>
       <c r="W3" s="0">
-        <v>7.9365079365079358</v>
+        <v>7.5757575757575761</v>
       </c>
       <c r="X3" s="0">
         <v>26.853466761972836</v>
@@ -791,13 +555,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0">
         <v>640</v>
@@ -812,22 +576,22 @@
         <v>0</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L4" s="0">
         <v>2</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N4" s="0">
         <v>0.15787976118136135</v>
@@ -857,7 +621,7 @@
         <v>2.6887780484892847</v>
       </c>
       <c r="W4" s="0">
-        <v>6.4724919093851128</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="X4" s="0">
         <v>21.327035830618893</v>
@@ -868,13 +632,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0">
         <v>640</v>
@@ -889,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L5" s="0">
         <v>2</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N5" s="0">
         <v>0.072913310365909076</v>
@@ -934,7 +698,7 @@
         <v>2.645376760367939</v>
       </c>
       <c r="W5" s="0">
-        <v>6.7114093959731536</v>
+        <v>7.0175438596491224</v>
       </c>
       <c r="X5" s="0">
         <v>17.340143003064352</v>
@@ -945,13 +709,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0">
         <v>640</v>
@@ -966,22 +730,22 @@
         <v>0</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L6" s="0">
         <v>2</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N6" s="0">
         <v>0.10160204473697398</v>
@@ -1011,7 +775,7 @@
         <v>2.3307490356157157</v>
       </c>
       <c r="W6" s="0">
-        <v>6.7340067340067336</v>
+        <v>6.1728395061728394</v>
       </c>
       <c r="X6" s="0">
         <v>23.793380140421263</v>
@@ -1022,13 +786,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0">
         <v>640</v>
@@ -1043,22 +807,22 @@
         <v>0</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L7" s="0">
         <v>2</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N7" s="0">
         <v>0.097558149531103408</v>
@@ -1088,7 +852,7 @@
         <v>2.5070340515267224</v>
       </c>
       <c r="W7" s="0">
-        <v>6.7114093959731536</v>
+        <v>7.2992700729927007</v>
       </c>
       <c r="X7" s="0">
         <v>20.830334190231362</v>
@@ -1099,13 +863,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0">
         <v>640</v>
@@ -1120,22 +884,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L8" s="0">
         <v>2</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N8" s="0">
         <v>0.038820908559110835</v>
@@ -1176,13 +940,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0">
         <v>640</v>
@@ -1197,22 +961,22 @@
         <v>0</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L9" s="0">
         <v>2</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N9" s="0">
         <v>0.030980882909881279</v>
@@ -1242,7 +1006,7 @@
         <v>2.2930075926609588</v>
       </c>
       <c r="W9" s="0">
-        <v>8.097165991902834</v>
+        <v>7.1174377224199281</v>
       </c>
       <c r="X9" s="0">
         <v>17.311320754716981</v>
@@ -1253,13 +1017,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0">
         <v>640</v>
@@ -1274,22 +1038,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L10" s="0">
         <v>2</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N10" s="0">
         <v>0.05267440201442955</v>
@@ -1319,7 +1083,7 @@
         <v>2.4347275148982472</v>
       </c>
       <c r="W10" s="0">
-        <v>7.6923076923076925</v>
+        <v>7.7821011673151741</v>
       </c>
       <c r="X10" s="0">
         <v>16.769430051813472</v>
@@ -1330,13 +1094,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0">
         <v>640</v>
@@ -1351,22 +1115,22 @@
         <v>0</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L11" s="0">
         <v>2</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N11" s="0">
         <v>0.0044672032825671532</v>
@@ -1396,7 +1160,7 @@
         <v>2.6264059652201581</v>
       </c>
       <c r="W11" s="0">
-        <v>22.471910112359549</v>
+        <v>22.988505747126435</v>
       </c>
       <c r="X11" s="0">
         <v>7.5524475524475525</v>
@@ -1407,13 +1171,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0">
         <v>640</v>
@@ -1428,22 +1192,22 @@
         <v>0</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L12" s="0">
         <v>2</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N12" s="0">
         <v>0.015155807365439094</v>
@@ -1473,7 +1237,7 @@
         <v>2.2878162938589068</v>
       </c>
       <c r="W12" s="0">
-        <v>10.1010101010101</v>
+        <v>10.869565217391305</v>
       </c>
       <c r="X12" s="0">
         <v>11.726027397260275</v>
@@ -1484,13 +1248,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0">
         <v>640</v>
@@ -1505,22 +1269,22 @@
         <v>0</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L13" s="0">
         <v>2</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N13" s="0">
         <v>0.010467203199986026</v>
@@ -1550,7 +1314,7 @@
         <v>2.5525271436035535</v>
       </c>
       <c r="W13" s="0">
-        <v>29.850746268656714</v>
+        <v>37.037037037037031</v>
       </c>
       <c r="X13" s="0">
         <v>10.110169491525424</v>
@@ -1561,13 +1325,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0">
         <v>640</v>
@@ -1582,22 +1346,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L14" s="0">
         <v>2</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N14" s="0">
         <v>0.18288751988213822</v>
@@ -1627,7 +1391,7 @@
         <v>2.7590830486598685</v>
       </c>
       <c r="W14" s="0">
-        <v>6.0790273556230998</v>
+        <v>5.7636887608069163</v>
       </c>
       <c r="X14" s="0">
         <v>29.585681645087586</v>
@@ -1638,13 +1402,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0">
         <v>640</v>
@@ -1659,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L15" s="0">
         <v>2</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N15" s="0">
         <v>0.22272194153735114</v>
@@ -1704,7 +1468,7 @@
         <v>2.4788625224577783</v>
       </c>
       <c r="W15" s="0">
-        <v>6.6006600660066006</v>
+        <v>6.2305295950155761</v>
       </c>
       <c r="X15" s="0">
         <v>29.911531421598536</v>
@@ -1715,13 +1479,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0">
         <v>640</v>
@@ -1736,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L16" s="0">
         <v>2</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N16" s="0">
         <v>0.18195360905451047</v>
@@ -1781,7 +1545,7 @@
         <v>2.7559851224572061</v>
       </c>
       <c r="W16" s="0">
-        <v>6.7114093959731536</v>
+        <v>6.5573770491803272</v>
       </c>
       <c r="X16" s="0">
         <v>26.718623481781375</v>
@@ -1792,13 +1556,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0">
         <v>640</v>
@@ -1813,22 +1577,22 @@
         <v>0</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L17" s="0">
         <v>2</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N17" s="0">
         <v>0.25699478957165978</v>
@@ -1858,7 +1622,7 @@
         <v>2.7788759344878118</v>
       </c>
       <c r="W17" s="0">
-        <v>6.1538461538461533</v>
+        <v>5.9171597633136095</v>
       </c>
       <c r="X17" s="0">
         <v>30.103104212860309</v>
@@ -1869,13 +1633,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0">
         <v>640</v>
@@ -1890,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L18" s="0">
         <v>2</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N18" s="0">
         <v>0.19562441896498295</v>
@@ -1935,7 +1699,7 @@
         <v>3.0701512329857583</v>
       </c>
       <c r="W18" s="0">
-        <v>6.6006600660066006</v>
+        <v>7.4626865671641784</v>
       </c>
       <c r="X18" s="0">
         <v>27.7782864617397</v>
@@ -1946,13 +1710,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="D19" s="0">
         <v>640</v>
@@ -1967,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L19" s="0">
         <v>2</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N19" s="0">
         <v>0.20058147304524976</v>
@@ -2023,13 +1787,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D20" s="0">
         <v>640</v>
@@ -2044,22 +1808,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L20" s="0">
         <v>2</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N20" s="0">
         <v>0.33350947040441681</v>
@@ -2089,7 +1853,7 @@
         <v>3.0378896845246093</v>
       </c>
       <c r="W20" s="0">
-        <v>5.6657223796033991</v>
+        <v>5.7971014492753623</v>
       </c>
       <c r="X20" s="0">
         <v>35.474727452923688</v>
@@ -2100,13 +1864,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D21" s="0">
         <v>640</v>
@@ -2121,22 +1885,22 @@
         <v>0</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L21" s="0">
         <v>2</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N21" s="0">
         <v>0.26024038657586757</v>
@@ -2177,13 +1941,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="D22" s="0">
         <v>640</v>
@@ -2198,22 +1962,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L22" s="0">
         <v>2</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N22" s="0">
         <v>0.29772814522842078</v>
@@ -2243,7 +2007,7 @@
         <v>2.9024385135277213</v>
       </c>
       <c r="W22" s="0">
-        <v>6.3694267515923562</v>
+        <v>6.0790273556230998</v>
       </c>
       <c r="X22" s="0">
         <v>35.088050314465406</v>
@@ -2254,13 +2018,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D23" s="0">
         <v>640</v>
@@ -2275,22 +2039,22 @@
         <v>0</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L23" s="0">
         <v>2</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N23" s="0">
         <v>0.2315699003944319</v>
@@ -2320,7 +2084,7 @@
         <v>3.309786640778678</v>
       </c>
       <c r="W23" s="0">
-        <v>6.6445182724252483</v>
+        <v>6.1728395061728394</v>
       </c>
       <c r="X23" s="0">
         <v>33.737723859041019</v>
@@ -2331,13 +2095,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="D24" s="0">
         <v>640</v>
@@ -2352,22 +2116,22 @@
         <v>0</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L24" s="0">
         <v>2</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N24" s="0">
         <v>0.24953920759282047</v>
@@ -2397,7 +2161,7 @@
         <v>3.7043940222767047</v>
       </c>
       <c r="W24" s="0">
-        <v>6.8493150684931505</v>
+        <v>6.0790273556230998</v>
       </c>
       <c r="X24" s="0">
         <v>31.205844155844154</v>
@@ -2408,13 +2172,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D25" s="0">
         <v>640</v>
@@ -2429,22 +2193,22 @@
         <v>0</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L25" s="0">
         <v>2</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N25" s="0">
         <v>0.2868686196920826</v>
@@ -2474,7 +2238,7 @@
         <v>3.2414129086863364</v>
       </c>
       <c r="W25" s="0">
-        <v>7.9365079365079358</v>
+        <v>6.968641114982578</v>
       </c>
       <c r="X25" s="0">
         <v>39.884224779959375</v>
